--- a/storage/app/public/form_import/form_import_matur.xlsx
+++ b/storage/app/public/form_import/form_import_matur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aldhi/Documents/Storage/Dev/laravel/08-socfin-sawit/storage/app/public/form_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85560784-E4CE-E04A-8EB0-BD13D41199F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEF5B0-9718-C64E-B5E9-7A6D134BABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14380" yWindow="31260" windowWidth="25700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,13 +56,13 @@
     <t>ID Bottle</t>
   </si>
   <si>
-    <t>Jlh Botol Liquid</t>
-  </si>
-  <si>
     <t>&lt;end&gt;</t>
   </si>
   <si>
     <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>Jlh Botol Matur</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -503,7 +503,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -529,7 +529,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>9</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
